--- a/Ebanking/src/com/ebanking/results/Res_Role.xlsx
+++ b/Ebanking/src/com/ebanking/results/Res_Role.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>RoleName</t>
   </si>
@@ -40,16 +40,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>New Role with id 2755 Created Sucessfully</t>
-  </si>
-  <si>
-    <t>New Role with id 2756 Created Sucessfully</t>
-  </si>
-  <si>
-    <t>New Role with id 2757 Created Sucessfully</t>
-  </si>
-  <si>
-    <t>New Role with id 2758 Created Sucessfully</t>
+    <t>Role Already existed</t>
   </si>
 </sst>
 </file>
@@ -449,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -460,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -471,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
